--- a/pile5_sect_3_all.xlsx
+++ b/pile5_sect_3_all.xlsx
@@ -501,13 +501,13 @@
         <v>44064</v>
       </c>
       <c r="B5">
-        <v>29.33291666666666</v>
+        <v>29.33291666666667</v>
       </c>
       <c r="C5">
-        <v>33.54000000000001</v>
+        <v>33.54</v>
       </c>
       <c r="D5">
-        <v>30.47708333333333</v>
+        <v>30.47708333333334</v>
       </c>
       <c r="E5">
         <v>19.36333333333333</v>
@@ -524,13 +524,13 @@
         <v>44065</v>
       </c>
       <c r="B6">
-        <v>30.87333333333335</v>
+        <v>30.87333333333333</v>
       </c>
       <c r="C6">
         <v>35.27958333333333</v>
       </c>
       <c r="D6">
-        <v>27.63125000000001</v>
+        <v>27.63125</v>
       </c>
       <c r="E6">
         <v>17.80791666666667</v>
@@ -573,13 +573,13 @@
         <v>30.27916666666667</v>
       </c>
       <c r="C8">
-        <v>32.62000000000001</v>
+        <v>32.62</v>
       </c>
       <c r="D8">
-        <v>30.78166666666666</v>
+        <v>30.78166666666667</v>
       </c>
       <c r="E8">
-        <v>15.49416666666666</v>
+        <v>15.49416666666667</v>
       </c>
       <c r="F8">
         <v>81.625</v>
@@ -599,7 +599,7 @@
         <v>31.26833333333333</v>
       </c>
       <c r="D9">
-        <v>31.38041666666666</v>
+        <v>31.38041666666667</v>
       </c>
       <c r="E9">
         <v>13.44116666666667</v>
@@ -619,7 +619,7 @@
         <v>28.59375</v>
       </c>
       <c r="C10">
-        <v>30.36208333333334</v>
+        <v>30.36208333333333</v>
       </c>
       <c r="D10">
         <v>31.41708333333333</v>
@@ -665,7 +665,7 @@
         <v>27.39833333333333</v>
       </c>
       <c r="C12">
-        <v>30.23874999999999</v>
+        <v>30.23875</v>
       </c>
       <c r="D12">
         <v>26.33458333333333</v>
@@ -694,7 +694,7 @@
         <v>25.52291666666666</v>
       </c>
       <c r="E13">
-        <v>13.90666666666666</v>
+        <v>13.90666666666667</v>
       </c>
       <c r="F13">
         <v>77</v>
@@ -734,13 +734,13 @@
         <v>26.96291666666667</v>
       </c>
       <c r="C15">
-        <v>28.86083333333334</v>
+        <v>28.86083333333333</v>
       </c>
       <c r="D15">
         <v>19.46166666666667</v>
       </c>
       <c r="E15">
-        <v>14.04916666666666</v>
+        <v>14.04916666666667</v>
       </c>
       <c r="F15">
         <v>73.5</v>
@@ -754,7 +754,7 @@
         <v>44075</v>
       </c>
       <c r="B16">
-        <v>26.29000000000001</v>
+        <v>26.29</v>
       </c>
       <c r="C16">
         <v>28.54791666666667</v>
@@ -783,7 +783,7 @@
         <v>28.42875</v>
       </c>
       <c r="D17">
-        <v>20.19666666666666</v>
+        <v>20.19666666666667</v>
       </c>
       <c r="E17">
         <v>12.4365</v>
@@ -803,7 +803,7 @@
         <v>25.7</v>
       </c>
       <c r="C18">
-        <v>27.26166666666666</v>
+        <v>27.26166666666667</v>
       </c>
       <c r="D18">
         <v>17.24375</v>
@@ -846,7 +846,7 @@
         <v>44079</v>
       </c>
       <c r="B20">
-        <v>25.65958333333334</v>
+        <v>25.65958333333333</v>
       </c>
       <c r="C20">
         <v>24.49208333333333</v>
@@ -861,7 +861,7 @@
         <v>85.41666666666667</v>
       </c>
       <c r="G20">
-        <v>4.400000000000001</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -895,10 +895,10 @@
         <v>25.49875</v>
       </c>
       <c r="C22">
-        <v>27.59416666666666</v>
+        <v>27.59416666666667</v>
       </c>
       <c r="D22">
-        <v>21.31083333333334</v>
+        <v>21.31083333333333</v>
       </c>
       <c r="E22">
         <v>13.09291666666667</v>
@@ -941,7 +941,7 @@
         <v>24.6375</v>
       </c>
       <c r="C24">
-        <v>26.42791666666667</v>
+        <v>26.42791666666666</v>
       </c>
       <c r="D24">
         <v>23.89041666666667</v>
@@ -961,7 +961,7 @@
         <v>44084</v>
       </c>
       <c r="B25">
-        <v>24.43041666666666</v>
+        <v>24.43041666666667</v>
       </c>
       <c r="C25">
         <v>25.70583333333333</v>
@@ -984,7 +984,7 @@
         <v>44085</v>
       </c>
       <c r="B26">
-        <v>23.13041666666666</v>
+        <v>23.13041666666667</v>
       </c>
       <c r="C26">
         <v>24.92041666666667</v>
@@ -993,7 +993,7 @@
         <v>20.19333333333333</v>
       </c>
       <c r="E26">
-        <v>9.641958333333331</v>
+        <v>9.641958333333333</v>
       </c>
       <c r="F26">
         <v>83.04166666666667</v>
@@ -1007,13 +1007,13 @@
         <v>44086</v>
       </c>
       <c r="B27">
-        <v>22.95916666666667</v>
+        <v>22.95916666666666</v>
       </c>
       <c r="C27">
-        <v>23.83624999999999</v>
+        <v>23.83625</v>
       </c>
       <c r="D27">
-        <v>19.01041666666666</v>
+        <v>19.01041666666667</v>
       </c>
       <c r="E27">
         <v>10.50566666666667</v>
@@ -1030,7 +1030,7 @@
         <v>44087</v>
       </c>
       <c r="B28">
-        <v>21.68041666666666</v>
+        <v>21.68041666666667</v>
       </c>
       <c r="C28">
         <v>20.5825</v>
@@ -1045,7 +1045,7 @@
         <v>82.33333333333333</v>
       </c>
       <c r="G28">
-        <v>9.799999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1108,7 +1108,7 @@
         <v>17.33625</v>
       </c>
       <c r="E31">
-        <v>9.808458333333334</v>
+        <v>9.808458333333332</v>
       </c>
       <c r="F31">
         <v>93.45833333333333</v>
@@ -1122,7 +1122,7 @@
         <v>44091</v>
       </c>
       <c r="B32">
-        <v>22.18458333333334</v>
+        <v>22.18458333333333</v>
       </c>
       <c r="C32">
         <v>18.85583333333333</v>
@@ -1154,7 +1154,7 @@
         <v>11.20583333333333</v>
       </c>
       <c r="E33">
-        <v>8.436250000000001</v>
+        <v>8.436249999999999</v>
       </c>
       <c r="F33">
         <v>79.875</v>
@@ -1168,7 +1168,7 @@
         <v>44093</v>
       </c>
       <c r="B34">
-        <v>22.07958333333334</v>
+        <v>22.07958333333333</v>
       </c>
       <c r="C34">
         <v>23.18375</v>
@@ -1191,7 +1191,7 @@
         <v>44094</v>
       </c>
       <c r="B35">
-        <v>20.95458333333333</v>
+        <v>20.95458333333334</v>
       </c>
       <c r="C35">
         <v>19.98666666666667</v>
@@ -1200,7 +1200,7 @@
         <v>16.62916666666667</v>
       </c>
       <c r="E35">
-        <v>8.898416666666664</v>
+        <v>8.898416666666668</v>
       </c>
       <c r="F35">
         <v>78.875</v>
@@ -1217,7 +1217,7 @@
         <v>19.27958333333333</v>
       </c>
       <c r="C36">
-        <v>15.32416666666667</v>
+        <v>15.32416666666666</v>
       </c>
       <c r="D36">
         <v>19.59166666666667</v>
@@ -1246,7 +1246,7 @@
         <v>21.21166666666667</v>
       </c>
       <c r="E37">
-        <v>10.81533333333334</v>
+        <v>10.81533333333333</v>
       </c>
       <c r="F37">
         <v>70.125</v>
@@ -1283,7 +1283,7 @@
         <v>44098</v>
       </c>
       <c r="B39">
-        <v>20.11083333333334</v>
+        <v>20.11083333333333</v>
       </c>
       <c r="C39">
         <v>16.51875</v>
@@ -1292,7 +1292,7 @@
         <v>17.99083333333333</v>
       </c>
       <c r="E39">
-        <v>12.02708333333334</v>
+        <v>12.02708333333333</v>
       </c>
       <c r="F39">
         <v>94.66666666666667</v>
@@ -1332,7 +1332,7 @@
         <v>23.18125</v>
       </c>
       <c r="C41">
-        <v>22.32583333333333</v>
+        <v>22.32583333333334</v>
       </c>
       <c r="D41">
         <v>17.19208333333333</v>
@@ -1375,7 +1375,7 @@
         <v>44102</v>
       </c>
       <c r="B43">
-        <v>24.72041666666668</v>
+        <v>24.72041666666667</v>
       </c>
       <c r="C43">
         <v>25.95291666666667</v>
@@ -1398,7 +1398,7 @@
         <v>44103</v>
       </c>
       <c r="B44">
-        <v>24.64333333333334</v>
+        <v>24.64333333333333</v>
       </c>
       <c r="C44">
         <v>26.70125</v>
@@ -1424,13 +1424,13 @@
         <v>24.69791666666667</v>
       </c>
       <c r="C45">
-        <v>26.97499999999999</v>
+        <v>26.975</v>
       </c>
       <c r="D45">
         <v>18.6525</v>
       </c>
       <c r="E45">
-        <v>11.40041666666666</v>
+        <v>11.40041666666667</v>
       </c>
       <c r="F45">
         <v>91.41666666666667</v>
@@ -1476,7 +1476,7 @@
         <v>17.515</v>
       </c>
       <c r="E47">
-        <v>10.73166666666666</v>
+        <v>10.73166666666667</v>
       </c>
       <c r="F47">
         <v>88.33333333333333</v>
@@ -1490,13 +1490,13 @@
         <v>44107</v>
       </c>
       <c r="B48">
-        <v>24.58541666666667</v>
+        <v>24.58541666666666</v>
       </c>
       <c r="C48">
-        <v>26.80375000000001</v>
+        <v>26.80375</v>
       </c>
       <c r="D48">
-        <v>15.20166666666666</v>
+        <v>15.20166666666667</v>
       </c>
       <c r="E48">
         <v>10.89541666666667</v>
@@ -1591,7 +1591,7 @@
         <v>13.68791666666667</v>
       </c>
       <c r="E52">
-        <v>11.91708333333334</v>
+        <v>11.91708333333333</v>
       </c>
       <c r="F52">
         <v>90.29166666666667</v>
@@ -1611,7 +1611,7 @@
         <v>22.34458333333333</v>
       </c>
       <c r="D53">
-        <v>14.64208333333334</v>
+        <v>14.64208333333333</v>
       </c>
       <c r="E53">
         <v>11.76916666666667</v>
@@ -1660,7 +1660,7 @@
         <v>17.04958333333333</v>
       </c>
       <c r="E55">
-        <v>9.957500000000001</v>
+        <v>9.9575</v>
       </c>
       <c r="F55">
         <v>82.29166666666667</v>
@@ -1683,13 +1683,13 @@
         <v>18.21625</v>
       </c>
       <c r="E56">
-        <v>8.823416666666665</v>
+        <v>8.823416666666667</v>
       </c>
       <c r="F56">
         <v>93.79166666666667</v>
       </c>
       <c r="G56">
-        <v>5.800000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1706,7 +1706,7 @@
         <v>19.55375</v>
       </c>
       <c r="E57">
-        <v>8.284124999999998</v>
+        <v>8.284125</v>
       </c>
       <c r="F57">
         <v>95.08333333333333</v>
@@ -1743,16 +1743,16 @@
         <v>44118</v>
       </c>
       <c r="B59">
-        <v>22.44791666666666</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="C59">
         <v>26.00791666666667</v>
       </c>
       <c r="D59">
-        <v>19.41041666666666</v>
+        <v>19.41041666666667</v>
       </c>
       <c r="E59">
-        <v>5.322166666666666</v>
+        <v>5.322166666666667</v>
       </c>
       <c r="F59">
         <v>87.375</v>
@@ -1818,10 +1818,10 @@
         <v>17.23166666666667</v>
       </c>
       <c r="D62">
-        <v>19.49166666666666</v>
+        <v>19.49166666666667</v>
       </c>
       <c r="E62">
-        <v>4.374166666666666</v>
+        <v>4.374166666666667</v>
       </c>
       <c r="F62">
         <v>91.95833333333333</v>
@@ -1838,10 +1838,10 @@
         <v>17.87125</v>
       </c>
       <c r="C63">
-        <v>15.02750000000001</v>
+        <v>15.0275</v>
       </c>
       <c r="D63">
-        <v>20.42625000000001</v>
+        <v>20.42625</v>
       </c>
       <c r="E63">
         <v>3.34625</v>
@@ -1864,7 +1864,7 @@
         <v>17.65833333333333</v>
       </c>
       <c r="D64">
-        <v>16.94041666666666</v>
+        <v>16.94041666666667</v>
       </c>
       <c r="E64">
         <v>1.681791666666667</v>
@@ -1890,7 +1890,7 @@
         <v>10.39541666666667</v>
       </c>
       <c r="E65">
-        <v>0.1062916666666666</v>
+        <v>0.1062916666666667</v>
       </c>
       <c r="F65">
         <v>85.5</v>
@@ -1913,13 +1913,13 @@
         <v>10.59445833333333</v>
       </c>
       <c r="E66">
-        <v>0.5442499999999999</v>
+        <v>0.54425</v>
       </c>
       <c r="F66">
         <v>87.125</v>
       </c>
       <c r="G66">
-        <v>5.400000000000001</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>16.9375</v>
       </c>
       <c r="D67">
-        <v>5.366541666666666</v>
+        <v>5.366541666666667</v>
       </c>
       <c r="E67">
-        <v>4.699583333333332</v>
+        <v>4.699583333333334</v>
       </c>
       <c r="F67">
         <v>95.83333333333333</v>
@@ -1956,7 +1956,7 @@
         <v>15.74</v>
       </c>
       <c r="D68">
-        <v>5.350749999999999</v>
+        <v>5.350750000000001</v>
       </c>
       <c r="E68">
         <v>3.38025</v>
@@ -1973,7 +1973,7 @@
         <v>44128</v>
       </c>
       <c r="B69">
-        <v>14.81166666666666</v>
+        <v>14.81166666666667</v>
       </c>
       <c r="C69">
         <v>11.66</v>
@@ -1982,7 +1982,7 @@
         <v>10.797375</v>
       </c>
       <c r="E69">
-        <v>1.863583333333334</v>
+        <v>1.863583333333333</v>
       </c>
       <c r="F69">
         <v>83.20833333333333</v>
@@ -2025,10 +2025,10 @@
         <v>14.78208333333333</v>
       </c>
       <c r="D71">
-        <v>9.854375000000003</v>
+        <v>9.854374999999999</v>
       </c>
       <c r="E71">
-        <v>7.442125000000001</v>
+        <v>7.442125</v>
       </c>
       <c r="F71">
         <v>91.16666666666667</v>
@@ -2042,13 +2042,13 @@
         <v>44131</v>
       </c>
       <c r="B72">
-        <v>18.12583333333334</v>
+        <v>18.12583333333333</v>
       </c>
       <c r="C72">
         <v>17.95583333333333</v>
       </c>
       <c r="D72">
-        <v>7.011749999999999</v>
+        <v>7.01175</v>
       </c>
       <c r="E72">
         <v>9.55875</v>
@@ -2071,7 +2071,7 @@
         <v>16.34666666666667</v>
       </c>
       <c r="D73">
-        <v>8.391874999999999</v>
+        <v>8.391875000000001</v>
       </c>
       <c r="E73">
         <v>8.31875</v>
@@ -2114,7 +2114,7 @@
         <v>16.23083333333333</v>
       </c>
       <c r="C75">
-        <v>12.67416666666666</v>
+        <v>12.67416666666667</v>
       </c>
       <c r="D75">
         <v>10.93625</v>
@@ -2143,7 +2143,7 @@
         <v>10.56833333333333</v>
       </c>
       <c r="E76">
-        <v>0.06470833333333344</v>
+        <v>0.06470833333333334</v>
       </c>
       <c r="F76">
         <v>91.04166666666667</v>
@@ -2163,10 +2163,10 @@
         <v>18.03625</v>
       </c>
       <c r="D77">
-        <v>8.958625000000001</v>
+        <v>8.958625</v>
       </c>
       <c r="E77">
-        <v>5.111250000000001</v>
+        <v>5.11125</v>
       </c>
       <c r="F77">
         <v>88.41666666666667</v>
@@ -2189,7 +2189,7 @@
         <v>5.424541666666666</v>
       </c>
       <c r="E78">
-        <v>4.344749999999999</v>
+        <v>4.34475</v>
       </c>
       <c r="F78">
         <v>85.30434782608695</v>
@@ -2209,10 +2209,10 @@
         <v>11.66583333333333</v>
       </c>
       <c r="D79">
-        <v>5.498249999999999</v>
+        <v>5.49825</v>
       </c>
       <c r="E79">
-        <v>8.991499999999998</v>
+        <v>8.9915</v>
       </c>
       <c r="F79">
         <v>88.70833333333333</v>
@@ -2232,7 +2232,7 @@
         <v>13.74916666666667</v>
       </c>
       <c r="D80">
-        <v>8.353375000000002</v>
+        <v>8.353375</v>
       </c>
       <c r="E80">
         <v>5.958291666666667</v>
@@ -2258,7 +2258,7 @@
         <v>13.77625</v>
       </c>
       <c r="E81">
-        <v>5.708000000000001</v>
+        <v>5.707999999999999</v>
       </c>
       <c r="F81">
         <v>75.875</v>
@@ -2272,10 +2272,10 @@
         <v>44141</v>
       </c>
       <c r="B82">
-        <v>10.76791666666666</v>
+        <v>10.76791666666667</v>
       </c>
       <c r="C82">
-        <v>7.724208333333332</v>
+        <v>7.724208333333333</v>
       </c>
       <c r="D82">
         <v>16.25291666666667</v>
@@ -2295,16 +2295,16 @@
         <v>44142</v>
       </c>
       <c r="B83">
-        <v>9.487916666666671</v>
+        <v>9.487916666666667</v>
       </c>
       <c r="C83">
-        <v>6.078291666666665</v>
+        <v>6.078291666666666</v>
       </c>
       <c r="D83">
         <v>14.86083333333333</v>
       </c>
       <c r="E83">
-        <v>8.343624999999999</v>
+        <v>8.343625000000001</v>
       </c>
       <c r="F83">
         <v>71.25</v>
@@ -2318,10 +2318,10 @@
         <v>44143</v>
       </c>
       <c r="B84">
-        <v>9.715416666666666</v>
+        <v>9.715416666666668</v>
       </c>
       <c r="C84">
-        <v>6.540416666666665</v>
+        <v>6.540416666666666</v>
       </c>
       <c r="D84">
         <v>14.85125</v>
@@ -2341,7 +2341,7 @@
         <v>44144</v>
       </c>
       <c r="B85">
-        <v>9.609166666666665</v>
+        <v>9.609166666666667</v>
       </c>
       <c r="C85">
         <v>6.455208333333334</v>
@@ -2364,7 +2364,7 @@
         <v>44145</v>
       </c>
       <c r="B86">
-        <v>10.14458333333334</v>
+        <v>10.14458333333333</v>
       </c>
       <c r="C86">
         <v>6.886166666666667</v>
@@ -2373,7 +2373,7 @@
         <v>15.75041666666667</v>
       </c>
       <c r="E86">
-        <v>-0.8717916666666666</v>
+        <v>-0.8717916666666667</v>
       </c>
       <c r="F86">
         <v>85.45833333333333</v>
@@ -2390,7 +2390,7 @@
         <v>10.86083333333333</v>
       </c>
       <c r="C87">
-        <v>7.663291666666669</v>
+        <v>7.663291666666667</v>
       </c>
       <c r="D87">
         <v>16.09</v>
@@ -2436,13 +2436,13 @@
         <v>12.26416666666667</v>
       </c>
       <c r="C89">
-        <v>8.796666666666665</v>
+        <v>8.796666666666667</v>
       </c>
       <c r="D89">
-        <v>15.73916666666666</v>
+        <v>15.73916666666667</v>
       </c>
       <c r="E89">
-        <v>3.387333333333333</v>
+        <v>3.387333333333334</v>
       </c>
       <c r="F89">
         <v>85.83333333333333</v>
@@ -2465,7 +2465,7 @@
         <v>13.27958333333333</v>
       </c>
       <c r="E90">
-        <v>2.419041666666666</v>
+        <v>2.419041666666667</v>
       </c>
       <c r="F90">
         <v>86.54166666666667</v>
@@ -2488,7 +2488,7 @@
         <v>9.49375</v>
       </c>
       <c r="E91">
-        <v>1.449333333333334</v>
+        <v>1.449333333333333</v>
       </c>
       <c r="F91">
         <v>86.04166666666667</v>
@@ -2502,13 +2502,13 @@
         <v>44151</v>
       </c>
       <c r="B92">
-        <v>14.60416666666666</v>
+        <v>14.60416666666667</v>
       </c>
       <c r="C92">
         <v>15.51208333333333</v>
       </c>
       <c r="D92">
-        <v>6.315749999999999</v>
+        <v>6.31575</v>
       </c>
       <c r="E92">
         <v>1.644125</v>
@@ -2528,19 +2528,19 @@
         <v>15.18041666666667</v>
       </c>
       <c r="C93">
-        <v>11.88791666666666</v>
+        <v>11.88791666666667</v>
       </c>
       <c r="D93">
         <v>4.145333333333333</v>
       </c>
       <c r="E93">
-        <v>3.076833333333334</v>
+        <v>3.076833333333333</v>
       </c>
       <c r="F93">
         <v>95.08333333333333</v>
       </c>
       <c r="G93">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,7 +2554,7 @@
         <v>10.86091666666667</v>
       </c>
       <c r="D94">
-        <v>5.034375000000001</v>
+        <v>5.034375</v>
       </c>
       <c r="E94">
         <v>4.938125</v>
@@ -2571,7 +2571,7 @@
         <v>44154</v>
       </c>
       <c r="B95">
-        <v>11.72966666666666</v>
+        <v>11.72966666666667</v>
       </c>
       <c r="C95">
         <v>10.03108333333333</v>
@@ -2580,7 +2580,7 @@
         <v>8.861666666666666</v>
       </c>
       <c r="E95">
-        <v>7.258541666666669</v>
+        <v>7.258541666666667</v>
       </c>
       <c r="F95">
         <v>84.95833333333333</v>
@@ -2594,10 +2594,10 @@
         <v>44155</v>
       </c>
       <c r="B96">
-        <v>8.692166666666665</v>
+        <v>8.692166666666667</v>
       </c>
       <c r="C96">
-        <v>6.304291666666665</v>
+        <v>6.304291666666667</v>
       </c>
       <c r="D96">
         <v>13.31791666666667</v>
@@ -2623,7 +2623,7 @@
         <v>6.607583333333333</v>
       </c>
       <c r="D97">
-        <v>11.57833333333334</v>
+        <v>11.57833333333333</v>
       </c>
       <c r="E97">
         <v>-1.979541666666667</v>
@@ -2632,7 +2632,7 @@
         <v>91.33333333333333</v>
       </c>
       <c r="G97">
-        <v>3.399999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>7.849041666666667</v>
       </c>
       <c r="D98">
-        <v>9.026250000000001</v>
+        <v>9.026249999999999</v>
       </c>
       <c r="E98">
-        <v>2.580124999999999</v>
+        <v>2.580125</v>
       </c>
       <c r="F98">
         <v>91.625</v>
@@ -2663,13 +2663,13 @@
         <v>44158</v>
       </c>
       <c r="B99">
-        <v>9.270416666666664</v>
+        <v>9.270416666666668</v>
       </c>
       <c r="C99">
-        <v>6.705666666666666</v>
+        <v>6.705666666666667</v>
       </c>
       <c r="D99">
-        <v>9.499166666666667</v>
+        <v>9.499166666666666</v>
       </c>
       <c r="E99">
         <v>2.862166666666667</v>
@@ -2709,13 +2709,13 @@
         <v>44160</v>
       </c>
       <c r="B101">
-        <v>10.29291666666666</v>
+        <v>10.29291666666667</v>
       </c>
       <c r="C101">
-        <v>7.408708333333334</v>
+        <v>7.408708333333333</v>
       </c>
       <c r="D101">
-        <v>8.622749999999998</v>
+        <v>8.62275</v>
       </c>
       <c r="E101">
         <v>-2.0205</v>
@@ -2735,10 +2735,10 @@
         <v>10.56208333333333</v>
       </c>
       <c r="C102">
-        <v>7.947416666666668</v>
+        <v>7.947416666666666</v>
       </c>
       <c r="D102">
-        <v>7.936208333333334</v>
+        <v>7.936208333333333</v>
       </c>
       <c r="E102">
         <v>1.050791666666667</v>
@@ -2747,7 +2747,7 @@
         <v>91.83333333333333</v>
       </c>
       <c r="G102">
-        <v>7.200000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2758,10 +2758,10 @@
         <v>11.40666666666667</v>
       </c>
       <c r="C103">
-        <v>10.65891666666666</v>
+        <v>10.65891666666667</v>
       </c>
       <c r="D103">
-        <v>5.885874999999999</v>
+        <v>5.885875</v>
       </c>
       <c r="E103">
         <v>0.3242916666666667</v>
@@ -2801,10 +2801,10 @@
         <v>44164</v>
       </c>
       <c r="B105">
-        <v>11.79833333333334</v>
+        <v>11.79833333333333</v>
       </c>
       <c r="C105">
-        <v>12.03666666666666</v>
+        <v>12.03666666666667</v>
       </c>
       <c r="D105">
         <v>3.970083333333333</v>
@@ -2879,7 +2879,7 @@
         <v>5.068708333333333</v>
       </c>
       <c r="E108">
-        <v>0.04624999999999996</v>
+        <v>0.04625000000000001</v>
       </c>
       <c r="F108">
         <v>91</v>
@@ -2899,7 +2899,7 @@
         <v>11.72458333333333</v>
       </c>
       <c r="D109">
-        <v>4.144000000000001</v>
+        <v>4.144</v>
       </c>
       <c r="E109">
         <v>-1.112708333333333</v>
@@ -2916,16 +2916,16 @@
         <v>44169</v>
       </c>
       <c r="B110">
-        <v>11.55583333333334</v>
+        <v>11.55583333333333</v>
       </c>
       <c r="C110">
-        <v>11.36958333333334</v>
+        <v>11.36958333333333</v>
       </c>
       <c r="D110">
         <v>3.398875</v>
       </c>
       <c r="E110">
-        <v>-0.8550833333333331</v>
+        <v>-0.8550833333333333</v>
       </c>
       <c r="F110">
         <v>84.875</v>
@@ -2942,7 +2942,7 @@
         <v>11.64166666666667</v>
       </c>
       <c r="C111">
-        <v>9.860833333333332</v>
+        <v>9.860833333333334</v>
       </c>
       <c r="D111">
         <v>2.6805</v>
@@ -2965,13 +2965,13 @@
         <v>11.62916666666667</v>
       </c>
       <c r="C112">
-        <v>8.374833333333335</v>
+        <v>8.374833333333333</v>
       </c>
       <c r="D112">
         <v>2.4455</v>
       </c>
       <c r="E112">
-        <v>2.182333333333334</v>
+        <v>2.182333333333333</v>
       </c>
       <c r="F112">
         <v>96.70833333333333</v>
@@ -2988,7 +2988,7 @@
         <v>11.57791666666667</v>
       </c>
       <c r="C113">
-        <v>7.707833333333334</v>
+        <v>7.707833333333333</v>
       </c>
       <c r="D113">
         <v>2.283</v>
@@ -3011,7 +3011,7 @@
         <v>11.52958333333333</v>
       </c>
       <c r="C114">
-        <v>8.546124999999998</v>
+        <v>8.546125</v>
       </c>
       <c r="D114">
         <v>2.317916666666667</v>
@@ -3040,7 +3040,7 @@
         <v>2.398958333333333</v>
       </c>
       <c r="E115">
-        <v>-3.974291666666668</v>
+        <v>-3.974291666666666</v>
       </c>
       <c r="F115">
         <v>83.125</v>
@@ -3054,16 +3054,16 @@
         <v>44175</v>
       </c>
       <c r="B116">
-        <v>11.19083333333334</v>
+        <v>11.19083333333333</v>
       </c>
       <c r="C116">
-        <v>9.667916666666665</v>
+        <v>9.667916666666667</v>
       </c>
       <c r="D116">
         <v>2.459333333333333</v>
       </c>
       <c r="E116">
-        <v>-3.702916666666666</v>
+        <v>-3.702916666666667</v>
       </c>
       <c r="F116">
         <v>86.33333333333333</v>
@@ -3086,7 +3086,7 @@
         <v>2.504958333333333</v>
       </c>
       <c r="E117">
-        <v>-4.134375000000001</v>
+        <v>-4.134374999999999</v>
       </c>
       <c r="F117">
         <v>87.83333333333333</v>
@@ -3132,7 +3132,7 @@
         <v>2.468041666666667</v>
       </c>
       <c r="E119">
-        <v>-2.910874999999999</v>
+        <v>-2.910875</v>
       </c>
       <c r="F119">
         <v>89.75</v>
@@ -3152,7 +3152,7 @@
         <v>10.23875</v>
       </c>
       <c r="D120">
-        <v>2.707374999999999</v>
+        <v>2.707375</v>
       </c>
       <c r="E120">
         <v>-3.108625</v>
@@ -3178,7 +3178,7 @@
         <v>2.873541666666667</v>
       </c>
       <c r="E121">
-        <v>-2.689583333333334</v>
+        <v>-2.689583333333333</v>
       </c>
       <c r="F121">
         <v>91.08333333333333</v>
@@ -3218,7 +3218,7 @@
         <v>10.17166666666667</v>
       </c>
       <c r="C123">
-        <v>9.826249999999996</v>
+        <v>9.82625</v>
       </c>
       <c r="D123">
         <v>2.645958333333333</v>
@@ -3241,7 +3241,7 @@
         <v>10.17458333333333</v>
       </c>
       <c r="C124">
-        <v>9.627083333333335</v>
+        <v>9.627083333333333</v>
       </c>
       <c r="D124">
         <v>2.245666666666667</v>
@@ -3270,7 +3270,7 @@
         <v>1.963375</v>
       </c>
       <c r="E125">
-        <v>-1.485458333333333</v>
+        <v>-1.485458333333334</v>
       </c>
       <c r="F125">
         <v>94.95833333333333</v>
@@ -3287,7 +3287,7 @@
         <v>9.680416666666668</v>
       </c>
       <c r="C126">
-        <v>8.912333333333333</v>
+        <v>8.912333333333335</v>
       </c>
       <c r="D126">
         <v>2.3995</v>
@@ -3307,7 +3307,7 @@
         <v>44186</v>
       </c>
       <c r="B127">
-        <v>9.110000000000001</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="C127">
         <v>7.197125</v>
@@ -3330,13 +3330,13 @@
         <v>44187</v>
       </c>
       <c r="B128">
-        <v>8.945000000000002</v>
+        <v>8.945</v>
       </c>
       <c r="C128">
-        <v>6.435916666666668</v>
+        <v>6.435916666666667</v>
       </c>
       <c r="D128">
-        <v>4.193666666666667</v>
+        <v>4.193666666666666</v>
       </c>
       <c r="E128">
         <v>2.614416666666667</v>
@@ -3353,16 +3353,16 @@
         <v>44188</v>
       </c>
       <c r="B129">
-        <v>9.394166666666665</v>
+        <v>9.394166666666667</v>
       </c>
       <c r="C129">
-        <v>8.392708333333331</v>
+        <v>8.392708333333333</v>
       </c>
       <c r="D129">
         <v>3.598458333333333</v>
       </c>
       <c r="E129">
-        <v>-0.02837500000000002</v>
+        <v>-0.02837499999999999</v>
       </c>
       <c r="F129">
         <v>94.75</v>
@@ -3376,16 +3376,16 @@
         <v>44189</v>
       </c>
       <c r="B130">
-        <v>9.446666666666665</v>
+        <v>9.446666666666667</v>
       </c>
       <c r="C130">
         <v>9.117083333333333</v>
       </c>
       <c r="D130">
-        <v>3.236708333333334</v>
+        <v>3.236708333333333</v>
       </c>
       <c r="E130">
-        <v>-0.5793749999999999</v>
+        <v>-0.579375</v>
       </c>
       <c r="F130">
         <v>96.375</v>
@@ -3405,7 +3405,7 @@
         <v>9.245833333333334</v>
       </c>
       <c r="D131">
-        <v>2.518000000000001</v>
+        <v>2.518</v>
       </c>
       <c r="E131">
         <v>-1.789541666666667</v>
@@ -3425,7 +3425,7 @@
         <v>9.455833333333333</v>
       </c>
       <c r="C132">
-        <v>8.529166666666669</v>
+        <v>8.529166666666667</v>
       </c>
       <c r="D132">
         <v>1.777333333333333</v>
@@ -3451,10 +3451,10 @@
         <v>8.452500000000001</v>
       </c>
       <c r="D133">
-        <v>1.923833333333334</v>
+        <v>1.923833333333333</v>
       </c>
       <c r="E133">
-        <v>-3.602708333333333</v>
+        <v>-3.602708333333334</v>
       </c>
       <c r="F133">
         <v>89.83333333333333</v>
@@ -3468,7 +3468,7 @@
         <v>44193</v>
       </c>
       <c r="B134">
-        <v>9.379166666666668</v>
+        <v>9.379166666666666</v>
       </c>
       <c r="C134">
         <v>7.656916666666667</v>
@@ -3494,10 +3494,10 @@
         <v>9.147499999999999</v>
       </c>
       <c r="C135">
-        <v>6.081500000000001</v>
+        <v>6.081499999999999</v>
       </c>
       <c r="D135">
-        <v>1.113916666666666</v>
+        <v>1.113916666666667</v>
       </c>
       <c r="E135">
         <v>-1.223208333333333</v>
@@ -3543,10 +3543,10 @@
         <v>4.389416666666667</v>
       </c>
       <c r="D137">
-        <v>0.7914583333333333</v>
+        <v>0.7914583333333334</v>
       </c>
       <c r="E137">
-        <v>0.6207083333333334</v>
+        <v>0.6207083333333333</v>
       </c>
       <c r="F137">
         <v>94.16666666666667</v>
@@ -3560,7 +3560,7 @@
         <v>44197</v>
       </c>
       <c r="B138">
-        <v>8.290416666666665</v>
+        <v>8.290416666666667</v>
       </c>
       <c r="C138">
         <v>5.107916666666667</v>
@@ -3586,7 +3586,7 @@
         <v>8.493333333333334</v>
       </c>
       <c r="C139">
-        <v>5.763791666666667</v>
+        <v>5.763791666666666</v>
       </c>
       <c r="D139">
         <v>1.165583333333333</v>
@@ -3609,7 +3609,7 @@
         <v>8.636666666666667</v>
       </c>
       <c r="C140">
-        <v>6.209208333333333</v>
+        <v>6.209208333333334</v>
       </c>
       <c r="D140">
         <v>1.305916666666667</v>
@@ -3629,13 +3629,13 @@
         <v>44200</v>
       </c>
       <c r="B141">
-        <v>8.775833333333335</v>
+        <v>8.775833333333333</v>
       </c>
       <c r="C141">
         <v>6.797583333333333</v>
       </c>
       <c r="D141">
-        <v>1.468041666666667</v>
+        <v>1.468041666666666</v>
       </c>
       <c r="E141">
         <v>-5.379083333333334</v>
@@ -3652,7 +3652,7 @@
         <v>44201</v>
       </c>
       <c r="B142">
-        <v>8.687083333333332</v>
+        <v>8.687083333333334</v>
       </c>
       <c r="C142">
         <v>7.574375</v>
@@ -3678,7 +3678,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C143">
-        <v>8.030708333333335</v>
+        <v>8.030708333333333</v>
       </c>
       <c r="D143">
         <v>2.012833333333333</v>
@@ -3701,13 +3701,13 @@
         <v>8.283333333333333</v>
       </c>
       <c r="C144">
-        <v>7.988083333333336</v>
+        <v>7.988083333333333</v>
       </c>
       <c r="D144">
         <v>1.981625</v>
       </c>
       <c r="E144">
-        <v>-6.892750000000002</v>
+        <v>-6.892749999999999</v>
       </c>
       <c r="F144">
         <v>90.375</v>
@@ -3721,7 +3721,7 @@
         <v>44204</v>
       </c>
       <c r="B145">
-        <v>8.001625000000001</v>
+        <v>8.001624999999999</v>
       </c>
       <c r="C145">
         <v>7.863958333333334</v>
@@ -3747,7 +3747,7 @@
         <v>7.411916666666666</v>
       </c>
       <c r="C146">
-        <v>7.504583333333334</v>
+        <v>7.504583333333333</v>
       </c>
       <c r="D146">
         <v>2.009541666666667</v>
@@ -3790,16 +3790,16 @@
         <v>44207</v>
       </c>
       <c r="B148">
-        <v>7.293833333333335</v>
+        <v>7.293833333333333</v>
       </c>
       <c r="C148">
-        <v>7.344458333333335</v>
+        <v>7.344458333333333</v>
       </c>
       <c r="D148">
         <v>1.704416666666667</v>
       </c>
       <c r="E148">
-        <v>-9.769166666666669</v>
+        <v>-9.769166666666667</v>
       </c>
       <c r="F148">
         <v>86.75</v>
@@ -3813,7 +3813,7 @@
         <v>44208</v>
       </c>
       <c r="B149">
-        <v>7.391208333333332</v>
+        <v>7.391208333333334</v>
       </c>
       <c r="C149">
         <v>6.719416666666667</v>
@@ -3839,7 +3839,7 @@
         <v>7.143291666666666</v>
       </c>
       <c r="C150">
-        <v>5.450583333333334</v>
+        <v>5.450583333333333</v>
       </c>
       <c r="D150">
         <v>0.4403333333333333</v>
@@ -3859,7 +3859,7 @@
         <v>44210</v>
       </c>
       <c r="B151">
-        <v>6.462208333333334</v>
+        <v>6.462208333333333</v>
       </c>
       <c r="C151">
         <v>5.831958333333334</v>
@@ -3905,7 +3905,7 @@
         <v>44212</v>
       </c>
       <c r="B153">
-        <v>5.043875000000001</v>
+        <v>5.043875</v>
       </c>
       <c r="C153">
         <v>4.929625000000001</v>
@@ -3928,7 +3928,7 @@
         <v>44213</v>
       </c>
       <c r="B154">
-        <v>5.106958333333333</v>
+        <v>5.106958333333334</v>
       </c>
       <c r="C154">
         <v>4.293208333333333</v>
@@ -3954,10 +3954,10 @@
         <v>5.0105</v>
       </c>
       <c r="C155">
-        <v>3.836583333333334</v>
+        <v>3.836583333333333</v>
       </c>
       <c r="D155">
-        <v>1.680874999999999</v>
+        <v>1.680875</v>
       </c>
       <c r="E155">
         <v>-5.680083333333333</v>
@@ -3983,7 +3983,7 @@
         <v>1.69475</v>
       </c>
       <c r="E156">
-        <v>-3.523083333333333</v>
+        <v>-3.523083333333334</v>
       </c>
       <c r="F156">
         <v>93.79166666666667</v>
@@ -3997,7 +3997,7 @@
         <v>44216</v>
       </c>
       <c r="B157">
-        <v>5.268249999999999</v>
+        <v>5.26825</v>
       </c>
       <c r="C157">
         <v>4.356625</v>
@@ -4006,7 +4006,7 @@
         <v>1.571166666666667</v>
       </c>
       <c r="E157">
-        <v>-4.509416666666666</v>
+        <v>-4.509416666666667</v>
       </c>
       <c r="F157">
         <v>91.70833333333333</v>
@@ -4020,13 +4020,13 @@
         <v>44217</v>
       </c>
       <c r="B158">
-        <v>5.136541666666666</v>
+        <v>5.136541666666667</v>
       </c>
       <c r="C158">
-        <v>4.555791666666666</v>
+        <v>4.555791666666667</v>
       </c>
       <c r="D158">
-        <v>0.9290833333333333</v>
+        <v>0.9290833333333334</v>
       </c>
       <c r="E158">
         <v>-9.417208333333333</v>
@@ -4066,16 +4066,16 @@
         <v>44219</v>
       </c>
       <c r="B160">
-        <v>5.140458333333332</v>
+        <v>5.140458333333333</v>
       </c>
       <c r="C160">
-        <v>4.137791666666668</v>
+        <v>4.137791666666667</v>
       </c>
       <c r="D160">
-        <v>0.2240833333333334</v>
+        <v>0.2240833333333333</v>
       </c>
       <c r="E160">
-        <v>-2.986749999999999</v>
+        <v>-2.98675</v>
       </c>
       <c r="F160">
         <v>93.33333333333333</v>
@@ -4098,7 +4098,7 @@
         <v>0.261625</v>
       </c>
       <c r="E161">
-        <v>0.5332499999999999</v>
+        <v>0.53325</v>
       </c>
       <c r="F161">
         <v>96.33333333333333</v>
@@ -4112,7 +4112,7 @@
         <v>44221</v>
       </c>
       <c r="B162">
-        <v>5.349708333333332</v>
+        <v>5.349708333333333</v>
       </c>
       <c r="C162">
         <v>3.819625</v>
@@ -4121,7 +4121,7 @@
         <v>0.290125</v>
       </c>
       <c r="E162">
-        <v>0.3883749999999999</v>
+        <v>0.388375</v>
       </c>
       <c r="F162">
         <v>97.625</v>
@@ -4144,7 +4144,7 @@
         <v>0.2941666666666666</v>
       </c>
       <c r="E163">
-        <v>0.4143749999999999</v>
+        <v>0.414375</v>
       </c>
       <c r="F163">
         <v>94.70833333333333</v>
@@ -4158,16 +4158,16 @@
         <v>44223</v>
       </c>
       <c r="B164">
-        <v>5.441333333333334</v>
+        <v>5.441333333333333</v>
       </c>
       <c r="C164">
-        <v>3.744375000000001</v>
+        <v>3.744375</v>
       </c>
       <c r="D164">
         <v>0.3134583333333333</v>
       </c>
       <c r="E164">
-        <v>0.2362916666666668</v>
+        <v>0.2362916666666667</v>
       </c>
       <c r="F164">
         <v>98.25</v>
@@ -4181,7 +4181,7 @@
         <v>44224</v>
       </c>
       <c r="B165">
-        <v>5.445333333333334</v>
+        <v>5.445333333333333</v>
       </c>
       <c r="C165">
         <v>3.825791666666667</v>
@@ -4204,13 +4204,13 @@
         <v>44225</v>
       </c>
       <c r="B166">
-        <v>5.477916666666665</v>
+        <v>5.477916666666666</v>
       </c>
       <c r="C166">
         <v>3.929041666666667</v>
       </c>
       <c r="D166">
-        <v>0.3924999999999999</v>
+        <v>0.3925</v>
       </c>
       <c r="E166">
         <v>-2.829083333333333</v>
@@ -4227,7 +4227,7 @@
         <v>44226</v>
       </c>
       <c r="B167">
-        <v>5.581999999999998</v>
+        <v>5.582</v>
       </c>
       <c r="C167">
         <v>3.914541666666667</v>
@@ -4253,7 +4253,7 @@
         <v>5.575666666666667</v>
       </c>
       <c r="C168">
-        <v>4.161791666666666</v>
+        <v>4.161791666666667</v>
       </c>
       <c r="D168">
         <v>0.4859166666666667</v>
@@ -4302,10 +4302,10 @@
         <v>4.162541666666667</v>
       </c>
       <c r="D170">
-        <v>0.6745833333333332</v>
+        <v>0.6745833333333334</v>
       </c>
       <c r="E170">
-        <v>-17.80416666666666</v>
+        <v>-17.80416666666667</v>
       </c>
       <c r="F170">
         <v>83.45833333333333</v>
@@ -4319,7 +4319,7 @@
         <v>44230</v>
       </c>
       <c r="B171">
-        <v>4.843041666666666</v>
+        <v>4.843041666666667</v>
       </c>
       <c r="C171">
         <v>4.352333333333333</v>
@@ -4365,13 +4365,13 @@
         <v>44232</v>
       </c>
       <c r="B173">
-        <v>4.022083333333333</v>
+        <v>4.022083333333334</v>
       </c>
       <c r="C173">
-        <v>3.736374999999999</v>
+        <v>3.736375</v>
       </c>
       <c r="D173">
-        <v>0.7712083333333332</v>
+        <v>0.7712083333333334</v>
       </c>
       <c r="E173">
         <v>-15.8525</v>
@@ -4391,10 +4391,10 @@
         <v>3.914958333333333</v>
       </c>
       <c r="C174">
-        <v>3.595583333333334</v>
+        <v>3.595583333333333</v>
       </c>
       <c r="D174">
-        <v>0.7540000000000001</v>
+        <v>0.754</v>
       </c>
       <c r="E174">
         <v>-12.30708333333333</v>
@@ -4411,13 +4411,13 @@
         <v>44234</v>
       </c>
       <c r="B175">
-        <v>4.008416666666667</v>
+        <v>4.008416666666666</v>
       </c>
       <c r="C175">
-        <v>3.792708333333333</v>
+        <v>3.792708333333334</v>
       </c>
       <c r="D175">
-        <v>0.6565416666666666</v>
+        <v>0.6565416666666667</v>
       </c>
       <c r="E175">
         <v>-8.535291666666668</v>
@@ -4440,7 +4440,7 @@
         <v>3.505416666666667</v>
       </c>
       <c r="D176">
-        <v>0.70125</v>
+        <v>0.7012499999999999</v>
       </c>
       <c r="E176">
         <v>-10.31416666666667</v>
